--- a/Appendices/Appendix A.8 - Project Budget and Expenditure/Team 3 Budget.xlsx
+++ b/Appendices/Appendix A.8 - Project Budget and Expenditure/Team 3 Budget.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28906"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livemanchesterac.sharepoint.com/sites/UOM-FSE-ENG-MENG-TEAM3-2024-25/Shared Documents/General/1. Admin &amp; Other/1. Audit/2024-2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1313" documentId="13_ncr:1_{212FF5B4-507B-1244-95DC-C8307D4786EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03D7E875-6AD1-4762-A3EC-3F927F6B7400}"/>
+  <xr:revisionPtr revIDLastSave="1375" documentId="13_ncr:1_{212FF5B4-507B-1244-95DC-C8307D4786EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76FB3D67-62E6-4F27-9E10-75970D7AC520}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" firstSheet="1" activeTab="1" xr2:uid="{B05A8B61-5539-B54D-9819-359737E71258}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" firstSheet="3" activeTab="3" xr2:uid="{B05A8B61-5539-B54D-9819-359737E71258}"/>
   </bookViews>
   <sheets>
     <sheet name="Preferred Supplier List" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="315">
   <si>
     <t>Lot</t>
   </si>
@@ -1190,12 +1190,45 @@
     <t>28/04/2025</t>
   </si>
   <si>
+    <t>Only 2 arrived</t>
+  </si>
+  <si>
     <t>Polycarbonate Clear 1200x600x2mm</t>
   </si>
   <si>
     <t>https://www.directplastics.co.uk/lexan-polycarb-sheet-1200-x-600-x-2mm</t>
   </si>
   <si>
+    <t>Wire-to-Board Terminal Block, 2.54 mm, 8 ways, MP008517</t>
+  </si>
+  <si>
+    <t>https://uk.farnell.com/multicomp-pro/mp008517/tb-wire-to-brd-r-a-8way-18awg/dp/3817464?ost=wire-to-board+terminal+block%2C+2.54+mm%2C+8+ways%2C+26+awg%2C+18+awg%2C+1+mm%C2%B2%2C+screw&amp;cfm=true</t>
+  </si>
+  <si>
+    <t>Wire-to-Board Terminal Block, 2.54 mm, 6 ways, MP008516</t>
+  </si>
+  <si>
+    <t>https://uk.farnell.com/multicomp-pro/mp008516/tb-wire-to-brd-r-a-6way-18awg/dp/3817463?st=2.54%20terminal%20block%20screw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25T Steering Gear Servo Winch Wheel Drum for 1/10 RC Crawler Car </t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/CENPEK-Steering-Crawler-Traxxsa-Tamiay/dp/B09H73VWZY/ref=sr_1_5?crid=26YTECJASDBVS&amp;dib=eyJ2IjoiMSJ9.Z-TOHsrbb7aNsfNHB8Bm0jg0JuX4SYodIFpuqAmTwUrRpMBVK3GZI9JwpuZrK_48qu0JnX2spx1WVZARv0bhAJLxOzvhCOYPIfebZYZAtU921L1sPAJ-naY1kctRUSF37jt8tlU9yuzRSb4w3LfRqFUBmyLZkWLskZx92skeR3IEZz5X84fp4a9asYiA_AJOXFwC3--_n6YMcBswVrKzsZemg1BnroFTgvTbQawsgN890TchhBBUDKF6Qde1-mxoyXyiynda4OA9bz_gHMyWqG8ZGqZrxOCYbDx-Uo8kwbQ.Cqb4rzdfIo6RFwe6BG-hWv-jdZCtYslbkcl6jn8bW98&amp;dib_tag=se&amp;keywords=25T+spool&amp;qid=1747304929&amp;s=kids&amp;sprefix=25t+spool%2Ctoys%2C114&amp;sr=1-5</t>
+  </si>
+  <si>
+    <t>£4.49 delivery fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4Pcs INA219 I2C Interface Bi-Directional DC Current Power Supply Sensor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.co.uk/dp/B0CP73P31R?ref=cm_sw_r_cso_cp_apin_dp_9BCV110ZV3K4HAMX6FJ1&amp;ref_=cm_sw_r_cso_cp_apin_dp_9BCV110ZV3K4HAMX6FJ1&amp;social_share=cm_sw_r_cso_cp_apin_dp_9BCV110ZV3K4HAMX6FJ1&amp;previewDoh=1  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>proceed?</t>
   </si>
   <si>
@@ -1227,6 +1260,9 @@
   </si>
   <si>
     <t>Order cancelled</t>
+  </si>
+  <si>
+    <t>Did not arrive</t>
   </si>
   <si>
     <t>Total cost (exc. VAT)</t>
@@ -2361,7 +2397,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{09EE77A8-5DAA-41DB-BD16-399D0D8FA9D0}" type="CELLRANGE">
+                    <a:fld id="{2963F16C-1179-4F43-A322-2630B3EC100D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[]</a:t>
@@ -2370,7 +2406,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{9EEF4B19-BE43-4F69-A953-2FF43558B643}" type="VALUE">
+                    <a:fld id="{644E904B-4CA4-4F67-AB72-26B43081DB0F}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[]</a:t>
@@ -2404,7 +2440,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{73BA2A56-5936-46B4-98FE-A1686F504000}" type="CELLRANGE">
+                    <a:fld id="{24D9C193-3D13-4CEB-BFDA-77835C45E8BA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[]</a:t>
@@ -2413,7 +2449,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{48D34F87-33B1-4D32-B8C9-0C676320856D}" type="VALUE">
+                    <a:fld id="{BD28A1F3-F216-4025-A1B2-FC9F8816F98E}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[]</a:t>
@@ -2447,7 +2483,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{165DF8D4-F1E1-4624-9B3B-5113AA063427}" type="CELLRANGE">
+                    <a:fld id="{412D3C18-5C58-40EC-8E9B-449232C10742}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[]</a:t>
@@ -2456,7 +2492,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{738A35F5-78F6-4C05-85E6-6451233558BC}" type="VALUE">
+                    <a:fld id="{EF566D68-C0FA-42B0-989E-13B0D6484DF8}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[]</a:t>
@@ -2490,7 +2526,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{16FAF43E-2F4C-4B82-B0B9-57ABB87671DD}" type="CELLRANGE">
+                    <a:fld id="{52F57D51-6C9E-48D6-9647-D453BE33E8E3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[]</a:t>
@@ -2499,7 +2535,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{B00B9BF8-A302-41E2-96E7-CE1A285C366B}" type="VALUE">
+                    <a:fld id="{62C50926-67A9-4D07-941B-9C70E75D4B6B}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[]</a:t>
@@ -2533,7 +2569,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{74D7E9FC-9C08-4E3B-801B-2A735FB20AC0}" type="CELLRANGE">
+                    <a:fld id="{695B3A79-09EA-4AFA-BC16-197EE3C00A20}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[]</a:t>
@@ -2542,7 +2578,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{775909E9-0FF4-42C0-9A44-668F8250E7F2}" type="VALUE">
+                    <a:fld id="{E5CAF474-31B5-474A-858D-29CA433D9CCC}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[]</a:t>
@@ -2576,7 +2612,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4132CDC9-1557-41E2-97B0-81318271B200}" type="CELLRANGE">
+                    <a:fld id="{842CBEEF-46C2-4792-BEBD-195C41937F48}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[]</a:t>
@@ -2585,7 +2621,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{24071B4E-DFD1-48EC-91DA-57B444ADA59F}" type="VALUE">
+                    <a:fld id="{D4D79678-F6C1-4452-9C1D-6B02273A1158}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[]</a:t>
@@ -2619,7 +2655,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FA974A24-697A-4729-9094-4A7DD37C0AFD}" type="CELLRANGE">
+                    <a:fld id="{3B931A63-6764-4B49-863F-4B30D3297440}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[]</a:t>
@@ -2628,7 +2664,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{B15ABB05-B9B6-45C3-8E17-BE75F1B57DDC}" type="VALUE">
+                    <a:fld id="{088DF75D-8881-47BF-9D3A-846D094CE8D7}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[]</a:t>
@@ -3039,10 +3075,10 @@
                   <c:v>344.09800000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>194.554</c:v>
+                  <c:v>211.024</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>232.69800000000001</c:v>
+                  <c:v>277.64800000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>197.244</c:v>
@@ -3054,10 +3090,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>136.63400000000004</c:v>
+                  <c:v>152.90600000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1205.7840000000001</c:v>
+                  <c:v>1283.4760000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3443,7 +3479,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{17E4F588-CAA3-4778-A83E-AA3BEF30926E}" type="CELLRANGE">
+                    <a:fld id="{5F663C50-2115-413A-BF62-EE41B9E32614}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[]</a:t>
@@ -3452,7 +3488,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{AA37B24A-145E-4BE2-9A22-9A462B710270}" type="VALUE">
+                    <a:fld id="{6D1814AD-F9F0-45CD-B735-0060D42CDA93}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[]</a:t>
@@ -3485,7 +3521,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{721931C4-F6CD-419E-AF01-C65996E87ED7}" type="CELLRANGE">
+                    <a:fld id="{EFAA0944-7CA6-4BD3-B069-4F45ADB32A28}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[]</a:t>
@@ -3494,7 +3530,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{3DF5248E-C984-4C7F-B8BE-03D2478BFB06}" type="VALUE">
+                    <a:fld id="{70F89DF0-4873-41A9-A4FC-CEB247B731B0}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[]</a:t>
@@ -3528,7 +3564,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5ABE2A48-803A-4AC1-B11D-7ECA07F9A3BE}" type="CELLRANGE">
+                    <a:fld id="{1563DCC0-DAB1-40E9-9438-660A37012096}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[]</a:t>
@@ -3537,7 +3573,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{3BC2AD76-6438-4000-8740-F92D60100500}" type="VALUE">
+                    <a:fld id="{772D05B2-1E88-4992-B73D-370E930AB40A}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[]</a:t>
@@ -3571,7 +3607,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6C806442-458B-45E2-AE29-ADFC673BA99D}" type="CELLRANGE">
+                    <a:fld id="{CB1FA3A4-EC5B-4D95-95F2-8CA139323194}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[]</a:t>
@@ -3580,7 +3616,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{D1C0A00F-74C6-461E-A8CC-FFCF5A1A2E71}" type="VALUE">
+                    <a:fld id="{4F2B041F-F3AC-4F3A-A6F5-32AE1739785B}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[]</a:t>
@@ -3614,7 +3650,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C220B73A-83C1-40D9-81F1-A932873F583A}" type="CELLRANGE">
+                    <a:fld id="{CA3DF3E9-136E-4B1B-8390-5F666CEE5651}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[]</a:t>
@@ -3623,7 +3659,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{47382A9A-2F9C-44A8-8817-ABB595DFC311}" type="VALUE">
+                    <a:fld id="{1DB126ED-169E-4653-822A-7EEF45997E1A}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[]</a:t>
@@ -3657,7 +3693,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0286DB21-EFD2-4B07-B698-AEE5B73E1C6F}" type="CELLRANGE">
+                    <a:fld id="{B6010A6B-6F5F-4691-B709-994A01804A75}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[]</a:t>
@@ -3666,7 +3702,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{8FC9A414-6185-475E-9F4B-2FCF7C5807CC}" type="VALUE">
+                    <a:fld id="{AA9036D1-C9DF-45B4-ADE5-B984A87A42E5}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[]</a:t>
@@ -3700,7 +3736,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{62D62EE7-4923-41AC-8C63-BF5DF59500CD}" type="CELLRANGE">
+                    <a:fld id="{5DAEE6B9-86F8-490F-B597-735E7F97510C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[]</a:t>
@@ -3709,7 +3745,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{0D1DB11D-6A3A-40B0-9467-27A97A49D7B7}" type="VALUE">
+                    <a:fld id="{23C74522-9228-4786-9BB8-45030E2DD960}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[]</a:t>
@@ -3836,10 +3872,10 @@
                   <c:v>0.20854424242424244</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11791151515151516</c:v>
+                  <c:v>0.12789333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14102909090909091</c:v>
+                  <c:v>0.16827151515151517</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.11954181818181818</c:v>
@@ -3851,7 +3887,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.2808484848484881E-2</c:v>
+                  <c:v>9.2670303030303047E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5772,8 +5808,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{07B988EA-03B9-0A4C-A9D8-DCC3D66B32C5}" name="Table1" displayName="Table1" ref="B5:J82" totalsRowShown="0">
-  <autoFilter ref="B5:J82" xr:uid="{07B988EA-03B9-0A4C-A9D8-DCC3D66B32C5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{07B988EA-03B9-0A4C-A9D8-DCC3D66B32C5}" name="Table1" displayName="Table1" ref="B5:J85" totalsRowShown="0">
+  <autoFilter ref="B5:J85" xr:uid="{07B988EA-03B9-0A4C-A9D8-DCC3D66B32C5}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{6F38F7C6-3586-B74F-A090-6C63A28365A1}" name="Item ID"/>
     <tableColumn id="2" xr3:uid="{4BA3E0A2-15DA-0442-9E2E-8B7CF7650F96}" name="Description"/>
@@ -5792,8 +5828,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{80D84BE9-673A-A446-B794-58E8471BEF14}" name="Table2" displayName="Table2" ref="B20:E95" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
-  <autoFilter ref="B20:E95" xr:uid="{80D84BE9-673A-A446-B794-58E8471BEF14}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{80D84BE9-673A-A446-B794-58E8471BEF14}" name="Table2" displayName="Table2" ref="B20:E99" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+  <autoFilter ref="B20:E99" xr:uid="{80D84BE9-673A-A446-B794-58E8471BEF14}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{D38E0AFA-2033-2D4D-9F93-3E94BB9A12AA}" name="Purchase" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{6157F52F-24DC-0D44-ACF1-2E57C00CB9F2}" name="Category" dataDxfId="2"/>
@@ -6799,8 +6835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F90281-73FD-C04C-A391-27487667933D}">
   <dimension ref="B2:K88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H79" sqref="H79:H81"/>
+    <sheetView topLeftCell="C63" workbookViewId="0">
+      <selection activeCell="K81" sqref="K81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
@@ -9167,13 +9203,16 @@
       <c r="J80" s="53" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="81" spans="2:10">
+      <c r="K80" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11">
       <c r="B81">
         <v>75</v>
       </c>
       <c r="C81" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D81" t="s">
         <v>133</v>
@@ -9189,7 +9228,7 @@
         <v>22.895999999999997</v>
       </c>
       <c r="H81" s="50" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I81" s="4" t="s">
         <v>115</v>
@@ -9198,50 +9237,135 @@
         <v>45783</v>
       </c>
     </row>
-    <row r="82" spans="2:10">
+    <row r="82" spans="2:11" ht="15.75">
       <c r="B82">
         <v>76</v>
       </c>
-      <c r="E82" s="4"/>
-      <c r="F82" s="58"/>
+      <c r="C82" t="s">
+        <v>279</v>
+      </c>
+      <c r="D82" t="s">
+        <v>130</v>
+      </c>
+      <c r="E82" s="4">
+        <v>6</v>
+      </c>
+      <c r="F82" s="58">
+        <v>6</v>
+      </c>
       <c r="G82" s="58">
         <f>Table3[[#This Row],[Price (exc. VAT)]]*1.2</f>
-        <v>0</v>
-      </c>
-      <c r="I82" s="4"/>
-      <c r="J82" s="53"/>
-    </row>
-    <row r="83" spans="2:10">
-      <c r="E83" s="4"/>
-      <c r="F83" s="58"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="H82" t="s">
+        <v>280</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J82" s="53">
+        <v>45792</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" ht="15.75">
+      <c r="B83">
+        <v>77</v>
+      </c>
+      <c r="C83" t="s">
+        <v>281</v>
+      </c>
+      <c r="D83" t="s">
+        <v>130</v>
+      </c>
+      <c r="E83" s="4">
+        <v>6</v>
+      </c>
+      <c r="F83" s="58">
+        <v>7.56</v>
+      </c>
       <c r="G83" s="58">
         <f>Table3[[#This Row],[Price (exc. VAT)]]*1.2</f>
-        <v>0</v>
-      </c>
-      <c r="I83" s="4"/>
-      <c r="J83" s="53"/>
-    </row>
-    <row r="84" spans="2:10">
-      <c r="E84" s="4"/>
-      <c r="F84" s="58"/>
+        <v>9.0719999999999992</v>
+      </c>
+      <c r="H83" t="s">
+        <v>282</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J83" s="53">
+        <v>45792</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" ht="15.75">
+      <c r="B84">
+        <v>78</v>
+      </c>
+      <c r="C84" t="s">
+        <v>283</v>
+      </c>
+      <c r="D84" t="s">
+        <v>142</v>
+      </c>
+      <c r="E84" s="4">
+        <v>2</v>
+      </c>
+      <c r="F84" s="58">
+        <f>16.47/1.2</f>
+        <v>13.725</v>
+      </c>
       <c r="G84" s="58">
         <f>Table3[[#This Row],[Price (exc. VAT)]]*1.2</f>
-        <v>0</v>
-      </c>
-      <c r="I84" s="4"/>
-      <c r="J84" s="53"/>
-    </row>
-    <row r="85" spans="2:10">
-      <c r="E85" s="4"/>
-      <c r="F85" s="58"/>
+        <v>16.47</v>
+      </c>
+      <c r="H84" s="50" t="s">
+        <v>284</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J84" s="53">
+        <v>45792</v>
+      </c>
+      <c r="K84" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" ht="15.75">
+      <c r="B85">
+        <v>79</v>
+      </c>
+      <c r="C85" t="s">
+        <v>286</v>
+      </c>
+      <c r="D85" t="s">
+        <v>117</v>
+      </c>
+      <c r="E85" s="4">
+        <v>5</v>
+      </c>
+      <c r="F85" s="58">
+        <f>44.95/1.2</f>
+        <v>37.458333333333336</v>
+      </c>
       <c r="G85" s="58">
         <f>Table3[[#This Row],[Price (exc. VAT)]]*1.2</f>
-        <v>0</v>
-      </c>
-      <c r="I85" s="4"/>
-      <c r="J85" s="53"/>
-    </row>
-    <row r="86" spans="2:10">
+        <v>44.95</v>
+      </c>
+      <c r="H85" s="50" t="s">
+        <v>287</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J85" s="53">
+        <v>45797</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11">
+      <c r="C86" t="s">
+        <v>288</v>
+      </c>
       <c r="E86" s="4"/>
       <c r="F86" s="58"/>
       <c r="G86" s="58">
@@ -9251,7 +9375,7 @@
       <c r="I86" s="4"/>
       <c r="J86" s="53"/>
     </row>
-    <row r="87" spans="2:10">
+    <row r="87" spans="2:11">
       <c r="E87" s="4"/>
       <c r="F87" s="58"/>
       <c r="G87" s="58">
@@ -9261,7 +9385,7 @@
       <c r="I87" s="4"/>
       <c r="J87" s="53"/>
     </row>
-    <row r="88" spans="2:10">
+    <row r="88" spans="2:11">
       <c r="E88" s="4"/>
       <c r="F88" s="58"/>
       <c r="G88" s="58">
@@ -9342,10 +9466,12 @@
     <hyperlink ref="H32" r:id="rId59" xr:uid="{6753147A-5917-494B-9556-C11AD61F1CC8}"/>
     <hyperlink ref="H80" r:id="rId60" display="https://www.amazon.co.uk/DIYmall-Coreless-Continuous-Rotation-Helicopter/dp/B0DNM3Q1MQ/ref=sr_1_51?crid=2EZ6K8MEXAXVY&amp;dib=eyJ2IjoiMSJ9.ce0vEDD1oh6V_MXGPFV3-NQXOA8eYkATrny8r1nClpk0wP747gzic_H9kqsdu046-X3kQDAlatifhyl6UkUpdL_7o_55YMRmtdjB7n5ZArqIcBZKLWr8xyHdXGHWVhI8xzQMf61G-4o-3txT-0HQ9I0lrr8R4swBY1hFNz8AiqseARJyhMv8lO2B3VZcVD3sEFrq-wWbfffXBi0vLOqkKBuhwpvBENOzT2P91exgSRUtbrXbgwMU5bp6cqPOEtpZcNZbLRvnjh83ywxzezdJ1CerirUqFg8OKfJ8x_u1uwU.FC0awUSS3G5gVqyWyX_K8wv_A0c8xGx_WLmx_sZiG4Y&amp;dib_tag=se&amp;keywords=Continuous+Rotation+Servo&amp;qid=1745592442&amp;sprefix=continuous+rotation+servo%2Caps%2C73&amp;sr=8-51" xr:uid="{1EE1545D-86F8-479A-8B05-659F5F0131EC}"/>
     <hyperlink ref="H81" r:id="rId61" xr:uid="{829D35A5-8269-43B6-8C79-D12805A8AF97}"/>
+    <hyperlink ref="H84" r:id="rId62" display="https://www.amazon.co.uk/CENPEK-Steering-Crawler-Traxxsa-Tamiay/dp/B09H73VWZY/ref=sr_1_5?crid=26YTECJASDBVS&amp;dib=eyJ2IjoiMSJ9.Z-TOHsrbb7aNsfNHB8Bm0jg0JuX4SYodIFpuqAmTwUrRpMBVK3GZI9JwpuZrK_48qu0JnX2spx1WVZARv0bhAJLxOzvhCOYPIfebZYZAtU921L1sPAJ-naY1kctRUSF37jt8tlU9yuzRSb4w3LfRqFUBmyLZkWLskZx92skeR3IEZz5X84fp4a9asYiA_AJOXFwC3--_n6YMcBswVrKzsZemg1BnroFTgvTbQawsgN890TchhBBUDKF6Qde1-mxoyXyiynda4OA9bz_gHMyWqG8ZGqZrxOCYbDx-Uo8kwbQ.Cqb4rzdfIo6RFwe6BG-hWv-jdZCtYslbkcl6jn8bW98&amp;dib_tag=se&amp;keywords=25T+spool&amp;qid=1747304929&amp;s=kids&amp;sprefix=25t+spool%2Ctoys%2C114&amp;sr=1-5" xr:uid="{72FC39F2-E0E1-4963-A687-39B865782AB9}"/>
+    <hyperlink ref="H85" r:id="rId63" xr:uid="{37B6DF94-ABCD-4B6D-AB83-F80BE340F794}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId62"/>
+    <tablePart r:id="rId64"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -9374,17 +9500,17 @@
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -9394,10 +9520,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDCA702C-A901-EA4F-BECE-3CFFD75440EB}">
-  <dimension ref="B2:J85"/>
+  <dimension ref="B2:J89"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="H89" sqref="H89"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="K82" sqref="K82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
@@ -9417,12 +9543,12 @@
     </row>
     <row r="4" spans="2:10" ht="21.95">
       <c r="B4" s="13" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -9431,22 +9557,22 @@
         <v>97</v>
       </c>
       <c r="E5" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="F5" t="s">
         <v>98</v>
       </c>
       <c r="G5" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="H5" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="I5" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="J5" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="2:10">
@@ -10183,7 +10309,7 @@
         <v>6.371999999999999</v>
       </c>
       <c r="I31" s="58" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="J31" s="85" t="b">
         <v>0</v>
@@ -10241,7 +10367,7 @@
         <v>9.6</v>
       </c>
       <c r="I33" s="58" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="J33" s="85" t="b">
         <v>0</v>
@@ -11465,7 +11591,7 @@
       </c>
       <c r="I76" s="58"/>
       <c r="J76" s="85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="2:10">
@@ -11494,7 +11620,7 @@
       </c>
       <c r="I77" s="58"/>
       <c r="J77" s="85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="2:10">
@@ -11523,7 +11649,7 @@
       </c>
       <c r="I78" s="58"/>
       <c r="J78" s="85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="2:10">
@@ -11549,7 +11675,9 @@
         <f>Table1[[#This Row],[Item cost (exc. VAT)]]*1.2</f>
         <v>90.54</v>
       </c>
-      <c r="I79" s="58"/>
+      <c r="I79" s="58" t="s">
+        <v>276</v>
+      </c>
       <c r="J79" s="85" t="b">
         <v>1</v>
       </c>
@@ -11559,13 +11687,13 @@
         <v>75</v>
       </c>
       <c r="C80" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D80" t="s">
         <v>133</v>
       </c>
       <c r="E80" s="54">
-        <v>45783</v>
+        <v>45792</v>
       </c>
       <c r="F80" s="4">
         <v>1</v>
@@ -11586,14 +11714,28 @@
       <c r="B81">
         <v>76</v>
       </c>
-      <c r="E81" s="54"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="58"/>
+      <c r="C81" t="s">
+        <v>279</v>
+      </c>
+      <c r="D81" t="s">
+        <v>130</v>
+      </c>
+      <c r="E81" s="54">
+        <v>45792</v>
+      </c>
+      <c r="F81" s="4">
+        <v>6</v>
+      </c>
+      <c r="G81" s="58">
+        <v>6</v>
+      </c>
       <c r="H81" s="58">
         <f>Table1[[#This Row],[Item cost (exc. VAT)]]*1.2</f>
-        <v>0</v>
-      </c>
-      <c r="I81" s="58"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="I81" s="58" t="s">
+        <v>300</v>
+      </c>
       <c r="J81" s="85" t="b">
         <v>0</v>
       </c>
@@ -11602,47 +11744,128 @@
       <c r="B82">
         <v>77</v>
       </c>
-      <c r="E82" s="54"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="58"/>
+      <c r="C82" t="s">
+        <v>281</v>
+      </c>
+      <c r="D82" t="s">
+        <v>130</v>
+      </c>
+      <c r="E82" s="54">
+        <v>45792</v>
+      </c>
+      <c r="F82" s="4">
+        <v>6</v>
+      </c>
+      <c r="G82" s="58">
+        <v>7.56</v>
+      </c>
       <c r="H82" s="58">
         <f>Table1[[#This Row],[Item cost (exc. VAT)]]*1.2</f>
-        <v>0</v>
+        <v>9.0719999999999992</v>
       </c>
       <c r="I82" s="58"/>
       <c r="J82" s="85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10">
+      <c r="B83">
+        <v>78</v>
+      </c>
+      <c r="C83" t="s">
+        <v>283</v>
+      </c>
+      <c r="D83" t="s">
+        <v>142</v>
+      </c>
+      <c r="E83" s="54">
+        <v>45792</v>
+      </c>
+      <c r="F83" s="4">
+        <v>2</v>
+      </c>
+      <c r="G83" s="58">
+        <v>13.725</v>
+      </c>
+      <c r="H83" s="58">
+        <f>Table1[[#This Row],[Item cost (exc. VAT)]]*1.2</f>
+        <v>16.47</v>
+      </c>
+      <c r="I83" s="58"/>
+      <c r="J83" s="85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10">
+      <c r="B84">
+        <v>79</v>
+      </c>
+      <c r="C84" t="s">
+        <v>286</v>
+      </c>
+      <c r="D84" t="s">
+        <v>117</v>
+      </c>
+      <c r="E84" s="54">
+        <v>45797</v>
+      </c>
+      <c r="F84" s="4">
+        <v>5</v>
+      </c>
+      <c r="G84" s="58">
+        <v>37.458333333333336</v>
+      </c>
+      <c r="H84" s="58">
+        <f>Table1[[#This Row],[Item cost (exc. VAT)]]*1.2</f>
+        <v>44.95</v>
+      </c>
+      <c r="I84" s="58"/>
+      <c r="J84" s="85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10">
+      <c r="E85" s="54"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="58"/>
+      <c r="H85" s="58">
+        <f>Table1[[#This Row],[Item cost (exc. VAT)]]*1.2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="2:10">
-      <c r="G83" s="60" t="s">
-        <v>289</v>
-      </c>
-      <c r="H83" s="61">
+      <c r="I85" s="58"/>
+      <c r="J85" s="85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10">
+      <c r="G87" s="60" t="s">
+        <v>301</v>
+      </c>
+      <c r="H87" s="61">
         <f>SUM(Table1[Item cost (exc. VAT)])</f>
-        <v>1011.6166666666668</v>
-      </c>
-    </row>
-    <row r="84" spans="2:10">
-      <c r="G84" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="H84" s="61">
+        <v>1076.3599999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10">
+      <c r="G88" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="H88" s="61">
         <f>SUM(Table1[Item cost (inc. VAT)])</f>
-        <v>1205.78</v>
-      </c>
-    </row>
-    <row r="85" spans="2:10">
-      <c r="G85" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="H85" s="61">
-        <f>Chart!D3-'Spending tracker'!H84</f>
-        <v>444.22</v>
+        <v>1283.472</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10">
+      <c r="G89" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="H89" s="61">
+        <f>Chart!D3-'Spending tracker'!H88</f>
+        <v>366.52800000000002</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J6:J82">
+  <conditionalFormatting sqref="J6:J85">
     <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"n"</formula>
     </cfRule>
@@ -11671,10 +11894,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21EF679-9453-3846-9699-F67D72B686D9}">
-  <dimension ref="A3:L95"/>
+  <dimension ref="A3:L99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
@@ -11686,7 +11909,7 @@
   <sheetData>
     <row r="3" spans="2:8" ht="24">
       <c r="B3" s="1" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="D3" s="2">
         <v>1650</v>
@@ -11694,15 +11917,15 @@
     </row>
     <row r="5" spans="2:8">
       <c r="B5" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="C5" s="3">
         <f ca="1">TODAY()</f>
-        <v>45788</v>
+        <v>45813</v>
       </c>
       <c r="D5" s="4">
-        <f>D3-SUM(E21:E95)</f>
-        <v>444.21599999999989</v>
+        <f>D3-SUM(E21:E99)</f>
+        <v>366.52399999999989</v>
       </c>
     </row>
     <row r="8" spans="2:8">
@@ -11711,17 +11934,17 @@
       </c>
       <c r="C8" s="97"/>
       <c r="D8" s="95" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="E8" s="96"/>
       <c r="F8" s="5" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="G8" s="77" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="H8" s="78" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="2:8">
@@ -11737,11 +11960,11 @@
         <v>759</v>
       </c>
       <c r="F9" s="51">
-        <f t="shared" ref="F9:F15" si="0">E9-SUMPRODUCT(SUMIF($C$21:$C$95,B9,$E$21:$E$95))</f>
+        <f>E9-SUMPRODUCT(SUMIF($C$21:$C$99,B9,$E$21:$E$99))</f>
         <v>414.90199999999999</v>
       </c>
       <c r="G9" s="79">
-        <f t="shared" ref="G9:G15" si="1">SUMPRODUCT(SUMIF($C$21:$C$95,B9,$E$21:$E$95))</f>
+        <f>SUMPRODUCT(SUMIF($C$21:$C$99,B9,$E$21:$E$99))</f>
         <v>344.09800000000001</v>
       </c>
       <c r="H9" s="80">
@@ -11758,20 +11981,20 @@
         <v>0.15</v>
       </c>
       <c r="E10" s="51">
-        <f t="shared" ref="E10:E15" si="2">D10*$D$3</f>
+        <f t="shared" ref="E10:E15" si="0">D10*$D$3</f>
         <v>247.5</v>
       </c>
       <c r="F10" s="51">
-        <f t="shared" si="0"/>
-        <v>52.945999999999998</v>
+        <f>E10-SUMPRODUCT(SUMIF($C$21:$C$99,B10,$E$21:$E$99))</f>
+        <v>36.475999999999999</v>
       </c>
       <c r="G10" s="79">
-        <f t="shared" si="1"/>
-        <v>194.554</v>
+        <f>SUMPRODUCT(SUMIF($C$21:$C$99,B10,$E$21:$E$99))</f>
+        <v>211.024</v>
       </c>
       <c r="H10" s="80">
-        <f t="shared" ref="H10:H16" si="3">G10/1650</f>
-        <v>0.11791151515151516</v>
+        <f t="shared" ref="H10:H16" si="1">G10/1650</f>
+        <v>0.12789333333333333</v>
       </c>
     </row>
     <row r="11" spans="2:8">
@@ -11783,20 +12006,20 @@
         <v>0.08</v>
       </c>
       <c r="E11" s="51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>132</v>
       </c>
       <c r="F11" s="51">
-        <f t="shared" si="0"/>
-        <v>-100.69800000000001</v>
+        <f>E11-SUMPRODUCT(SUMIF($C$21:$C$99,B11,$E$21:$E$99))</f>
+        <v>-145.64800000000002</v>
       </c>
       <c r="G11" s="79">
+        <f>SUMPRODUCT(SUMIF($C$21:$C$99,B11,$E$21:$E$99))</f>
+        <v>277.64800000000002</v>
+      </c>
+      <c r="H11" s="80">
         <f t="shared" si="1"/>
-        <v>232.69800000000001</v>
-      </c>
-      <c r="H11" s="80">
-        <f t="shared" si="3"/>
-        <v>0.14102909090909091</v>
+        <v>0.16827151515151517</v>
       </c>
     </row>
     <row r="12" spans="2:8">
@@ -11808,19 +12031,19 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="E12" s="51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>123.75</v>
       </c>
       <c r="F12" s="51">
-        <f t="shared" si="0"/>
+        <f>E12-SUMPRODUCT(SUMIF($C$21:$C$99,B12,$E$21:$E$99))</f>
         <v>-73.494</v>
       </c>
       <c r="G12" s="79">
+        <f>SUMPRODUCT(SUMIF($C$21:$C$99,B12,$E$21:$E$99))</f>
+        <v>197.244</v>
+      </c>
+      <c r="H12" s="80">
         <f t="shared" si="1"/>
-        <v>197.244</v>
-      </c>
-      <c r="H12" s="80">
-        <f t="shared" si="3"/>
         <v>0.11954181818181818</v>
       </c>
     </row>
@@ -11833,44 +12056,44 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="E13" s="51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>140.25</v>
       </c>
       <c r="F13" s="51">
-        <f t="shared" si="0"/>
+        <f>E13-SUMPRODUCT(SUMIF($C$21:$C$99,B13,$E$21:$E$99))</f>
         <v>39.693999999999988</v>
       </c>
       <c r="G13" s="79">
+        <f>SUMPRODUCT(SUMIF($C$21:$C$99,B13,$E$21:$E$99))</f>
+        <v>100.55600000000001</v>
+      </c>
+      <c r="H13" s="80">
         <f t="shared" si="1"/>
-        <v>100.55600000000001</v>
-      </c>
-      <c r="H13" s="80">
-        <f t="shared" si="3"/>
         <v>6.0943030303030311E-2</v>
       </c>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="11" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="7">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="E14" s="51">
-        <f t="shared" si="2"/>
-        <v>107.25</v>
-      </c>
-      <c r="F14" s="51">
         <f t="shared" si="0"/>
         <v>107.25</v>
       </c>
+      <c r="F14" s="51">
+        <f>E14-SUMPRODUCT(SUMIF($C$21:$C$99,B14,$E$21:$E$99))</f>
+        <v>107.25</v>
+      </c>
       <c r="G14" s="79">
+        <f>SUMPRODUCT(SUMIF($C$21:$C$99,B14,$E$21:$E$99))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="80">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11883,25 +12106,25 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="E15" s="51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>140.25</v>
       </c>
       <c r="F15" s="51">
-        <f t="shared" si="0"/>
-        <v>3.615999999999957</v>
+        <f>E15-SUMPRODUCT(SUMIF($C$21:$C$99,B15,$E$21:$E$99))</f>
+        <v>-12.656000000000034</v>
       </c>
       <c r="G15" s="79">
+        <f>SUMPRODUCT(SUMIF($C$21:$C$99,B15,$E$21:$E$99))</f>
+        <v>152.90600000000003</v>
+      </c>
+      <c r="H15" s="80">
         <f t="shared" si="1"/>
-        <v>136.63400000000004</v>
-      </c>
-      <c r="H15" s="80">
-        <f t="shared" si="3"/>
-        <v>8.2808484848484881E-2</v>
+        <v>9.2670303030303047E-2</v>
       </c>
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="11" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="8">
@@ -11914,20 +12137,20 @@
       </c>
       <c r="F16" s="51">
         <f>SUM(F9:F15)</f>
-        <v>444.21599999999989</v>
+        <v>366.52399999999989</v>
       </c>
       <c r="G16" s="79">
         <f>SUM(G9:G15)</f>
-        <v>1205.7840000000001</v>
+        <v>1283.4760000000001</v>
       </c>
       <c r="H16" s="80">
-        <f t="shared" si="3"/>
-        <v>0.73077818181818188</v>
+        <f t="shared" si="1"/>
+        <v>0.77786424242424246</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="B20" s="16" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>97</v>
@@ -11936,7 +12159,7 @@
         <v>103</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -13074,7 +13297,7 @@
         <v>133</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="E87" s="62">
         <v>11.327999999999999</v>
@@ -13091,7 +13314,7 @@
         <v>117</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="E88" s="62">
         <v>3.3359999999999999</v>
@@ -13108,7 +13331,7 @@
         <v>107</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="E89" s="62">
         <v>22.18</v>
@@ -13125,7 +13348,7 @@
         <v>107</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="E90" s="62">
         <v>37.979999999999997</v>
@@ -13142,7 +13365,7 @@
         <v>117</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="E91" s="62">
         <v>4.8</v>
@@ -13159,7 +13382,7 @@
         <v>117</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="E92" s="62">
         <v>6.5900000000000007</v>
@@ -13176,7 +13399,7 @@
         <v>142</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="E93" s="62">
         <v>3.01</v>
@@ -13204,7 +13427,7 @@
         <v>75</v>
       </c>
       <c r="B95" s="84" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C95" s="14" t="s">
         <v>133</v>
@@ -13214,6 +13437,74 @@
       </c>
       <c r="E95" s="63">
         <v>22.9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>76</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D96" s="10">
+        <v>45792</v>
+      </c>
+      <c r="E96" s="62">
+        <v>7.1999999999999993</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>77</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D97" s="10">
+        <v>45792</v>
+      </c>
+      <c r="E97" s="62">
+        <v>9.0719999999999992</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>78</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D98" s="10">
+        <v>45792</v>
+      </c>
+      <c r="E98" s="62">
+        <v>16.47</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>79</v>
+      </c>
+      <c r="B99" s="84" t="s">
+        <v>286</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D99" s="15">
+        <v>45797</v>
+      </c>
+      <c r="E99" s="63">
+        <v>44.95</v>
       </c>
     </row>
   </sheetData>
@@ -13235,12 +13526,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="378d6c1e-c497-4bc9-8c9c-0c0c76868b57">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d26c88b5-24ca-49a8-8849-8f2549d770b0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13451,18 +13744,16 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="378d6c1e-c497-4bc9-8c9c-0c0c76868b57">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d26c88b5-24ca-49a8-8849-8f2549d770b0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D00E68E-ABB9-48E3-885B-E4C9FC09DB3C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3F82BC1-F10F-4D77-9A79-4C7461BDB82D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13470,5 +13761,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3F82BC1-F10F-4D77-9A79-4C7461BDB82D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D00E68E-ABB9-48E3-885B-E4C9FC09DB3C}"/>
 </file>